--- a/log/data_summary.xlsx
+++ b/log/data_summary.xlsx
@@ -14,8 +14,10 @@
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$AC$43001</definedName>
     <definedName name="columns" comment="The number of types of data collected.">Graphs!$B$5</definedName>
     <definedName name="Extra" comment="Any extra tests performed.">Graphs!$B$4</definedName>
     <definedName name="g01s01">OFFSET(INDIRECT(Graphs!$C$11),0,0,Run_Limit)</definedName>
@@ -61,6 +63,9 @@
     <definedName name="g01s41">OFFSET(INDIRECT(Graphs!$C$51),0,0,Run_Limit)</definedName>
     <definedName name="g01s42">OFFSET(INDIRECT(Graphs!$C$52),0,0,Run_Limit)</definedName>
     <definedName name="g01s43">OFFSET(INDIRECT(Graphs!$C$53),0,0,Run_Limit)</definedName>
+    <definedName name="g01s44">OFFSET(INDIRECT(Graphs!$C$54),0,0,Run_Limit)</definedName>
+    <definedName name="g01s45">OFFSET(INDIRECT(Graphs!$C$55),0,0,Run_Limit)</definedName>
+    <definedName name="g01s46">OFFSET(INDIRECT(Graphs!$C$56),0,0,Run_Limit)</definedName>
     <definedName name="Job_Combos" comment="Number of proficiency level combinations tested.">Graphs!$B$2</definedName>
     <definedName name="Priorities" comment="Number of deciders tested.">Graphs!$B$3</definedName>
     <definedName name="Run_Limit" comment="How many iterations per run.">Graphs!$B$1</definedName>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Run Limit</t>
   </si>
@@ -109,7 +114,19 @@
     <t>Col1</t>
   </si>
   <si>
-    <t>Col2</t>
+    <t>End</t>
+  </si>
+  <si>
+    <t>attempts</t>
+  </si>
+  <si>
+    <t>successes</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>cumulative</t>
   </si>
 </sst>
 </file>
@@ -178,7 +195,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -222,7 +239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000000-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -264,7 +281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000001-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -306,7 +323,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000002-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -348,7 +365,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000003-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -390,7 +407,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000004-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -432,7 +449,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000005-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -476,7 +493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000006-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -520,7 +537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000007-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -564,7 +581,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000008-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -608,7 +625,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000009-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,7 +669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000A-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -696,7 +713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000B-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -741,7 +758,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000C-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -786,7 +803,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000D-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,7 +848,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000E-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -876,7 +893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000000F-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -921,7 +938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000010-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,7 +983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000011-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1010,7 +1027,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000012-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,7 +1071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000013-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1098,7 +1115,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000014-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1142,7 +1159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000015-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1186,7 +1203,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000016-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,7 +1247,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000017-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1275,7 +1292,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000018-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,7 +1337,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000019-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,7 +1382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001A-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1410,7 +1427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001B-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1455,7 +1472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001C-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1500,7 +1517,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001D-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1544,7 +1561,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001E-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1588,7 +1605,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{0000001F-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1632,7 +1649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000020-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1676,7 +1693,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000021-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1720,7 +1737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000022-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1764,7 +1781,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000023-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1809,7 +1826,408 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-A0A0-4C1F-B166-4A264A85355F}"/>
+              <c16:uniqueId val="{00000024-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-C8B3-48F9-A26A-A36FCBD23318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!g01s46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-C8B3-48F9-A26A-A36FCBD23318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1822,17 +2240,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="601696944"/>
-        <c:axId val="601697272"/>
+        <c:axId val="632821136"/>
+        <c:axId val="632822120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="601696944"/>
+        <c:axId val="632821136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1869,7 +2286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601697272"/>
+        <c:crossAx val="632822120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1877,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601697272"/>
+        <c:axId val="632822120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +2345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601696944"/>
+        <c:crossAx val="632821136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,7 +2358,1496 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-FF67-4D7B-80B4-1169E4DB5333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="620978104"/>
+        <c:axId val="620987944"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>attempts</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="46"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="46"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000019-FF67-4D7B-80B4-1169E4DB5333}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620978104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620987944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620987944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620978104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-C644-41A9-88FD-F9DEBBA2FE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560577816"/>
+        <c:axId val="560576832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560577816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560576832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560576832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560577816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,6 +3915,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2564,20 +4550,1028 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>29936</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2597,6 +5591,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAA4199-942B-4618-8E04-5A8DB21111EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>734786</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C51A5E1-3CB7-4805-8DE6-F8A4A2CF8477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2905,12 +5976,32 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="C1" sqref="A1:E46000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2919,17 +6010,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2950,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,8 +6081,8 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f>(Job_Combos*Priorities+Extra)*Run_Limit</f>
-        <v>37000</v>
+        <f>(Job_Combos*Priorities+Extra)*Run_Limit+(start-1)</f>
+        <v>46000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,16 +6104,16 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B53" ca="1" si="0">INDIRECT("Data!A"&amp;(1+(A11*Run_Limit)))</f>
+        <f t="shared" ref="B11:B53" ca="1" si="0">INDIRECT("Data!A"&amp;(1+(A11*Run_Limit)+(start-1)))</f>
         <v>0</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C53" si="1">_xlfn.CONCAT("Data!$C",(1+(A11*Run_Limit)),":$C",((A11*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="C11:C53" si="1">_xlfn.CONCAT("Data!$C",(1+(A11*Run_Limit)+(start-1)),":$C",((A11*Run_Limit)+Run_Limit+(start-1)))</f>
         <v>Data!$C1:$C1000</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D53" si="2">_xlfn.CONCAT("Data!$D",(1+(A11*Run_Limit)),":$D",((A11*Run_Limit)+Run_Limit))</f>
-        <v>Data!$D1:$D1000</v>
+        <f t="shared" ref="D11:D56" si="2">_xlfn.CONCAT("Data!$C",((A11*Run_Limit)+Run_Limit),":$Z",((A11*Run_Limit)+Run_Limit))</f>
+        <v>Data!$C1000:$Z1000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,7 +6130,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D1001:$D2000</v>
+        <v>Data!$C2000:$Z2000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +6147,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D2001:$D3000</v>
+        <v>Data!$C3000:$Z3000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,7 +6164,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D3001:$D4000</v>
+        <v>Data!$C4000:$Z4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,7 +6181,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D4001:$D5000</v>
+        <v>Data!$C5000:$Z5000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,7 +6198,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D5001:$D6000</v>
+        <v>Data!$C6000:$Z6000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,7 +6215,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D6001:$D7000</v>
+        <v>Data!$C7000:$Z7000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,7 +6232,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D7001:$D8000</v>
+        <v>Data!$C8000:$Z8000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,7 +6249,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D8001:$D9000</v>
+        <v>Data!$C9000:$Z9000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,7 +6266,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D9001:$D10000</v>
+        <v>Data!$C10000:$Z10000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,7 +6283,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D10001:$D11000</v>
+        <v>Data!$C11000:$Z11000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,7 +6300,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D11001:$D12000</v>
+        <v>Data!$C12000:$Z12000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,7 +6317,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D12001:$D13000</v>
+        <v>Data!$C13000:$Z13000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,7 +6334,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D13001:$D14000</v>
+        <v>Data!$C14000:$Z14000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,7 +6351,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D14001:$D15000</v>
+        <v>Data!$C15000:$Z15000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,7 +6368,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D15001:$D16000</v>
+        <v>Data!$C16000:$Z16000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3294,7 +6385,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D16001:$D17000</v>
+        <v>Data!$C17000:$Z17000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,7 +6402,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D17001:$D18000</v>
+        <v>Data!$C18000:$Z18000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,7 +6419,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D18001:$D19000</v>
+        <v>Data!$C19000:$Z19000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +6436,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D19001:$D20000</v>
+        <v>Data!$C20000:$Z20000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3362,7 +6453,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D20001:$D21000</v>
+        <v>Data!$C21000:$Z21000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,7 +6470,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D21001:$D22000</v>
+        <v>Data!$C22000:$Z22000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,7 +6487,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D22001:$D23000</v>
+        <v>Data!$C23000:$Z23000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,7 +6504,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D23001:$D24000</v>
+        <v>Data!$C24000:$Z24000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,7 +6521,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D24001:$D25000</v>
+        <v>Data!$C25000:$Z25000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,7 +6538,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D25001:$D26000</v>
+        <v>Data!$C26000:$Z26000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3464,7 +6555,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D26001:$D27000</v>
+        <v>Data!$C27000:$Z27000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,7 +6572,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D27001:$D28000</v>
+        <v>Data!$C28000:$Z28000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,7 +6589,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D28001:$D29000</v>
+        <v>Data!$C29000:$Z29000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,7 +6606,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D29001:$D30000</v>
+        <v>Data!$C30000:$Z30000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3532,7 +6623,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D30001:$D31000</v>
+        <v>Data!$C31000:$Z31000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,7 +6640,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D31001:$D32000</v>
+        <v>Data!$C32000:$Z32000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,7 +6657,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D32001:$D33000</v>
+        <v>Data!$C33000:$Z33000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,7 +6674,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D33001:$D34000</v>
+        <v>Data!$C34000:$Z34000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,7 +6691,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D34001:$D35000</v>
+        <v>Data!$C35000:$Z35000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3617,7 +6708,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D35001:$D36000</v>
+        <v>Data!$C36000:$Z36000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,7 +6725,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D36001:$D37000</v>
+        <v>Data!$C37000:$Z37000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,7 +6742,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D37001:$D38000</v>
+        <v>Data!$C38000:$Z38000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,7 +6759,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D38001:$D39000</v>
+        <v>Data!$C39000:$Z39000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,7 +6776,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D39001:$D40000</v>
+        <v>Data!$C40000:$Z40000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,7 +6793,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D40001:$D41000</v>
+        <v>Data!$C41000:$Z41000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,7 +6810,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D41001:$D42000</v>
+        <v>Data!$C42000:$Z42000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,7 +6827,5306 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>Data!$D42001:$D43000</v>
+        <v>Data!$C43000:$Z43000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54:B56" ca="1" si="3">INDIRECT("Data!A"&amp;(1+(A54*Run_Limit)+(start-1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" ref="C54:C56" si="4">_xlfn.CONCAT("Data!$C",(1+(A54*Run_Limit)+(start-1)),":$C",((A54*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$C43001:$C44000</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>Data!$C44000:$Z44000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>Data!$C44001:$C45000</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>Data!$C45000:$Z45000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v>Data!$C45001:$C46000</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>Data!$C46000:$Z46000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B47" ca="1" si="0">INDIRECT("Data!A"&amp;(1+(A2*Run_Limit)+(start-1)))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C47" si="1">_xlfn.CONCAT("Data!$C",((A2*Run_Limit)+Run_Limit),":$Z",((A2*Run_Limit)+Run_Limit))</f>
+        <v>Data!$C1000:$Z1000</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D47" ca="1" si="2">INDIRECT("Data!C" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E47" ca="1" si="3">INDIRECT("Data!d" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F47" ca="1" si="4">INDIRECT("Data!e" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f ca="1">SUM(INDIRECT(Graphs!C11))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H47" ca="1" si="5">INDIRECT("Data!f" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I47" ca="1" si="6">INDIRECT("Data!g" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J47" ca="1" si="7">INDIRECT("Data!h" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K47" ca="1" si="8">INDIRECT("Data!i" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L47" ca="1" si="9">INDIRECT("Data!J" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M47" ca="1" si="10">INDIRECT("Data!K" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N47" ca="1" si="11">INDIRECT("Data!L" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O47" ca="1" si="12">INDIRECT("Data!M" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P47" ca="1" si="13">INDIRECT("Data!N" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q47" ca="1" si="14">INDIRECT("Data!O" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R47" ca="1" si="15">INDIRECT("Data!P" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S47" ca="1" si="16">INDIRECT("Data!Q" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T47" ca="1" si="17">INDIRECT("Data!R" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U47" ca="1" si="18">INDIRECT("Data!S" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V47" ca="1" si="19">INDIRECT("Data!T" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W47" ca="1" si="20">INDIRECT("Data!U" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X47" ca="1" si="21">INDIRECT("Data!V" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:Y47" ca="1" si="22">INDIRECT("Data!W" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:Z47" ca="1" si="23">INDIRECT("Data!X" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AA47" ca="1" si="24">INDIRECT("Data!Y" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB47" ca="1" si="25">INDIRECT("Data!Z" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C2000:$Z2000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f ca="1">SUM(INDIRECT(Graphs!C12))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C3000:$Z3000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f ca="1">SUM(INDIRECT(Graphs!C13))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C4000:$Z4000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f ca="1">SUM(INDIRECT(Graphs!C14))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C5000:$Z5000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f ca="1">SUM(INDIRECT(Graphs!C15))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C6000:$Z6000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f ca="1">SUM(INDIRECT(Graphs!C16))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C7000:$Z7000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f ca="1">SUM(INDIRECT(Graphs!C17))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C8000:$Z8000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f ca="1">SUM(INDIRECT(Graphs!C18))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C9000:$Z9000</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f ca="1">SUM(INDIRECT(Graphs!C19))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C10000:$Z10000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f ca="1">SUM(INDIRECT(Graphs!C20))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C11000:$Z11000</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f ca="1">SUM(INDIRECT(Graphs!C21))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C12000:$Z12000</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f ca="1">SUM(INDIRECT(Graphs!C22))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C13000:$Z13000</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f ca="1">SUM(INDIRECT(Graphs!C23))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C14000:$Z14000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f ca="1">SUM(INDIRECT(Graphs!C24))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C15000:$Z15000</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f ca="1">SUM(INDIRECT(Graphs!C25))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C16000:$Z16000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f ca="1">SUM(INDIRECT(Graphs!C26))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C17000:$Z17000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f ca="1">SUM(INDIRECT(Graphs!C27))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C18000:$Z18000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f ca="1">SUM(INDIRECT(Graphs!C28))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C19000:$Z19000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f ca="1">SUM(INDIRECT(Graphs!C29))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C20000:$Z20000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f ca="1">SUM(INDIRECT(Graphs!C30))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C21000:$Z21000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f ca="1">SUM(INDIRECT(Graphs!C31))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C22000:$Z22000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f ca="1">SUM(INDIRECT(Graphs!C32))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C23000:$Z23000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f ca="1">SUM(INDIRECT(Graphs!C33))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C24000:$Z24000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f ca="1">SUM(INDIRECT(Graphs!C34))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C25000:$Z25000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f ca="1">SUM(INDIRECT(Graphs!C35))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C26000:$Z26000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f ca="1">SUM(INDIRECT(Graphs!C36))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C27000:$Z27000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f ca="1">SUM(INDIRECT(Graphs!C37))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C28000:$Z28000</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f ca="1">SUM(INDIRECT(Graphs!C38))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C29000:$Z29000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f ca="1">SUM(INDIRECT(Graphs!C39))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C30000:$Z30000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f ca="1">SUM(INDIRECT(Graphs!C40))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C31000:$Z31000</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f ca="1">SUM(INDIRECT(Graphs!C41))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C32000:$Z32000</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f ca="1">SUM(INDIRECT(Graphs!C42))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C33000:$Z33000</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f ca="1">SUM(INDIRECT(Graphs!C43))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C34000:$Z34000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f ca="1">SUM(INDIRECT(Graphs!C44))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C35000:$Z35000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f ca="1">SUM(INDIRECT(Graphs!C45))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C36000:$Z36000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f ca="1">SUM(INDIRECT(Graphs!C46))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C37000:$Z37000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f ca="1">SUM(INDIRECT(Graphs!C47))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C38000:$Z38000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f ca="1">SUM(INDIRECT(Graphs!C48))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C39000:$Z39000</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f ca="1">SUM(INDIRECT(Graphs!C49))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C40000:$Z40000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f ca="1">SUM(INDIRECT(Graphs!C50))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C41000:$Z41000</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f ca="1">SUM(INDIRECT(Graphs!C51))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C42000:$Z42000</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f ca="1">SUM(INDIRECT(Graphs!C52))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C43000:$Z43000</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f ca="1">SUM(INDIRECT(Graphs!C53))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C44000:$Z44000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f ca="1">SUM(INDIRECT(Graphs!C54))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C45000:$Z45000</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f ca="1">SUM(INDIRECT(Graphs!C55))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>Data!$C46000:$Z46000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f ca="1">SUM(INDIRECT(Graphs!C56))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/log/data_summary.xlsx
+++ b/log/data_summary.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Run Limit</t>
   </si>
@@ -117,16 +117,19 @@
     <t>End</t>
   </si>
   <si>
-    <t>attempts</t>
+    <t>food_start</t>
   </si>
   <si>
-    <t>successes</t>
+    <t>food_end</t>
   </si>
   <si>
-    <t>percent</t>
+    <t>difference</t>
   </si>
   <si>
-    <t>cumulative</t>
+    <t>cumulative_start</t>
+  </si>
+  <si>
+    <t>cumulative_end</t>
   </si>
 </sst>
 </file>
@@ -2439,36 +2442,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2485,7 +2458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>percent</c:v>
+                  <c:v>food_start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,6 +2773,333 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>food_end</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-FF67-4D7B-80B4-1169E4DB5333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2811,354 +3111,7 @@
         <c:gapWidth val="182"/>
         <c:axId val="620978104"/>
         <c:axId val="620987944"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>attempts</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$B$47</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="46"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2:$E$47</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="46"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000019-FF67-4D7B-80B4-1169E4DB5333}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="620978104"/>
@@ -3357,36 +3310,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3403,7 +3326,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cumulative</c:v>
+                  <c:v>cumulative_start</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3715,6 +3638,654 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000002E-C644-41A9-88FD-F9DEBBA2FE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60E5-40BE-8DD5-2ACC12F48DAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumulative_end</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-60E5-40BE-8DD5-2ACC12F48DAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5609,8 +6180,8 @@
       <xdr:rowOff>102053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
@@ -5639,16 +6210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95252</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>166008</xdr:rowOff>
+      <xdr:rowOff>89808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>734786</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>887186</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5976,7 +6547,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:E46000"/>
+      <selection sqref="A1:AA46000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6013,7 +6584,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,12 +6679,12 @@
         <v>0</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C53" si="1">_xlfn.CONCAT("Data!$C",(1+(A11*Run_Limit)+(start-1)),":$C",((A11*Run_Limit)+Run_Limit+(start-1)))</f>
+        <f>_xlfn.CONCAT("Data!$C",(1+(A11*Run_Limit)+(start-1)),":$C",((A11*Run_Limit)+Run_Limit+(start-1)))</f>
         <v>Data!$C1:$C1000</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D56" si="2">_xlfn.CONCAT("Data!$C",((A11*Run_Limit)+Run_Limit),":$Z",((A11*Run_Limit)+Run_Limit))</f>
-        <v>Data!$C1000:$Z1000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A11*Run_Limit)+(start-1)),":$D",((A11*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D1:$D1000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,12 +6696,12 @@
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C11:C53" si="1">_xlfn.CONCAT("Data!$C",(1+(A12*Run_Limit)+(start-1)),":$C",((A12*Run_Limit)+Run_Limit+(start-1)))</f>
         <v>Data!$C1001:$C2000</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C2000:$Z2000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A12*Run_Limit)+(start-1)),":$D",((A12*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D1001:$D2000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,8 +6717,8 @@
         <v>Data!$C2001:$C3000</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C3000:$Z3000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A13*Run_Limit)+(start-1)),":$D",((A13*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D2001:$D3000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,8 +6734,8 @@
         <v>Data!$C3001:$C4000</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C4000:$Z4000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A14*Run_Limit)+(start-1)),":$D",((A14*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D3001:$D4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,8 +6751,8 @@
         <v>Data!$C4001:$C5000</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C5000:$Z5000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A15*Run_Limit)+(start-1)),":$D",((A15*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D4001:$D5000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6197,8 +6768,8 @@
         <v>Data!$C5001:$C6000</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C6000:$Z6000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A16*Run_Limit)+(start-1)),":$D",((A16*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D5001:$D6000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6214,8 +6785,8 @@
         <v>Data!$C6001:$C7000</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C7000:$Z7000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A17*Run_Limit)+(start-1)),":$D",((A17*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D6001:$D7000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6231,8 +6802,8 @@
         <v>Data!$C7001:$C8000</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C8000:$Z8000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A18*Run_Limit)+(start-1)),":$D",((A18*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D7001:$D8000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6248,8 +6819,8 @@
         <v>Data!$C8001:$C9000</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C9000:$Z9000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A19*Run_Limit)+(start-1)),":$D",((A19*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D8001:$D9000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,8 +6836,8 @@
         <v>Data!$C9001:$C10000</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C10000:$Z10000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A20*Run_Limit)+(start-1)),":$D",((A20*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D9001:$D10000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,8 +6853,8 @@
         <v>Data!$C10001:$C11000</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C11000:$Z11000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A21*Run_Limit)+(start-1)),":$D",((A21*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D10001:$D11000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,8 +6870,8 @@
         <v>Data!$C11001:$C12000</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C12000:$Z12000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A22*Run_Limit)+(start-1)),":$D",((A22*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D11001:$D12000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,8 +6887,8 @@
         <v>Data!$C12001:$C13000</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C13000:$Z13000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A23*Run_Limit)+(start-1)),":$D",((A23*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D12001:$D13000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6333,8 +6904,8 @@
         <v>Data!$C13001:$C14000</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C14000:$Z14000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A24*Run_Limit)+(start-1)),":$D",((A24*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D13001:$D14000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6350,8 +6921,8 @@
         <v>Data!$C14001:$C15000</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C15000:$Z15000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A25*Run_Limit)+(start-1)),":$D",((A25*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D14001:$D15000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6367,8 +6938,8 @@
         <v>Data!$C15001:$C16000</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C16000:$Z16000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A26*Run_Limit)+(start-1)),":$D",((A26*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D15001:$D16000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6384,8 +6955,8 @@
         <v>Data!$C16001:$C17000</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C17000:$Z17000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A27*Run_Limit)+(start-1)),":$D",((A27*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D16001:$D17000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,8 +6972,8 @@
         <v>Data!$C17001:$C18000</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C18000:$Z18000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A28*Run_Limit)+(start-1)),":$D",((A28*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D17001:$D18000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6418,8 +6989,8 @@
         <v>Data!$C18001:$C19000</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C19000:$Z19000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A29*Run_Limit)+(start-1)),":$D",((A29*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D18001:$D19000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6435,8 +7006,8 @@
         <v>Data!$C19001:$C20000</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C20000:$Z20000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A30*Run_Limit)+(start-1)),":$D",((A30*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D19001:$D20000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,8 +7023,8 @@
         <v>Data!$C20001:$C21000</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C21000:$Z21000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A31*Run_Limit)+(start-1)),":$D",((A31*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D20001:$D21000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6469,8 +7040,8 @@
         <v>Data!$C21001:$C22000</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C22000:$Z22000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A32*Run_Limit)+(start-1)),":$D",((A32*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D21001:$D22000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6486,8 +7057,8 @@
         <v>Data!$C22001:$C23000</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C23000:$Z23000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A33*Run_Limit)+(start-1)),":$D",((A33*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D22001:$D23000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,8 +7074,8 @@
         <v>Data!$C23001:$C24000</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C24000:$Z24000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A34*Run_Limit)+(start-1)),":$D",((A34*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D23001:$D24000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,8 +7091,8 @@
         <v>Data!$C24001:$C25000</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C25000:$Z25000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A35*Run_Limit)+(start-1)),":$D",((A35*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D24001:$D25000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,8 +7108,8 @@
         <v>Data!$C25001:$C26000</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C26000:$Z26000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A36*Run_Limit)+(start-1)),":$D",((A36*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D25001:$D26000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,8 +7125,8 @@
         <v>Data!$C26001:$C27000</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C27000:$Z27000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A37*Run_Limit)+(start-1)),":$D",((A37*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D26001:$D27000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6571,8 +7142,8 @@
         <v>Data!$C27001:$C28000</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C28000:$Z28000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A38*Run_Limit)+(start-1)),":$D",((A38*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D27001:$D28000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,8 +7159,8 @@
         <v>Data!$C28001:$C29000</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C29000:$Z29000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A39*Run_Limit)+(start-1)),":$D",((A39*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D28001:$D29000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6605,8 +7176,8 @@
         <v>Data!$C29001:$C30000</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C30000:$Z30000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A40*Run_Limit)+(start-1)),":$D",((A40*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D29001:$D30000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6622,8 +7193,8 @@
         <v>Data!$C30001:$C31000</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C31000:$Z31000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A41*Run_Limit)+(start-1)),":$D",((A41*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D30001:$D31000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,8 +7210,8 @@
         <v>Data!$C31001:$C32000</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C32000:$Z32000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A42*Run_Limit)+(start-1)),":$D",((A42*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D31001:$D32000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6656,8 +7227,8 @@
         <v>Data!$C32001:$C33000</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C33000:$Z33000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A43*Run_Limit)+(start-1)),":$D",((A43*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D32001:$D33000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,8 +7244,8 @@
         <v>Data!$C33001:$C34000</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C34000:$Z34000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A44*Run_Limit)+(start-1)),":$D",((A44*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D33001:$D34000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,8 +7261,8 @@
         <v>Data!$C34001:$C35000</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C35000:$Z35000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A45*Run_Limit)+(start-1)),":$D",((A45*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D34001:$D35000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6707,8 +7278,8 @@
         <v>Data!$C35001:$C36000</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C36000:$Z36000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A46*Run_Limit)+(start-1)),":$D",((A46*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D35001:$D36000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6724,8 +7295,8 @@
         <v>Data!$C36001:$C37000</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C37000:$Z37000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A47*Run_Limit)+(start-1)),":$D",((A47*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D36001:$D37000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6741,8 +7312,8 @@
         <v>Data!$C37001:$C38000</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C38000:$Z38000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A48*Run_Limit)+(start-1)),":$D",((A48*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D37001:$D38000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6758,8 +7329,8 @@
         <v>Data!$C38001:$C39000</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C39000:$Z39000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A49*Run_Limit)+(start-1)),":$D",((A49*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D38001:$D39000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,8 +7346,8 @@
         <v>Data!$C39001:$C40000</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C40000:$Z40000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A50*Run_Limit)+(start-1)),":$D",((A50*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D39001:$D40000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6792,8 +7363,8 @@
         <v>Data!$C40001:$C41000</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C41000:$Z41000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A51*Run_Limit)+(start-1)),":$D",((A51*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D40001:$D41000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6809,8 +7380,8 @@
         <v>Data!$C41001:$C42000</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C42000:$Z42000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A52*Run_Limit)+(start-1)),":$D",((A52*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D41001:$D42000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6826,8 +7397,8 @@
         <v>Data!$C42001:$C43000</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C43000:$Z43000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A53*Run_Limit)+(start-1)),":$D",((A53*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D42001:$D43000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,16 +7406,16 @@
         <v>43</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B56" ca="1" si="3">INDIRECT("Data!A"&amp;(1+(A54*Run_Limit)+(start-1)))</f>
+        <f t="shared" ref="B54:B56" ca="1" si="2">INDIRECT("Data!A"&amp;(1+(A54*Run_Limit)+(start-1)))</f>
         <v>0</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ref="C54:C56" si="4">_xlfn.CONCAT("Data!$C",(1+(A54*Run_Limit)+(start-1)),":$C",((A54*Run_Limit)+Run_Limit+(start-1)))</f>
+        <f t="shared" ref="C54:C56" si="3">_xlfn.CONCAT("Data!$C",(1+(A54*Run_Limit)+(start-1)),":$C",((A54*Run_Limit)+Run_Limit+(start-1)))</f>
         <v>Data!$C43001:$C44000</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C44000:$Z44000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A54*Run_Limit)+(start-1)),":$D",((A54*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D43001:$D44000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6852,16 +7423,16 @@
         <v>44</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Data!$C44001:$C45000</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C45000:$Z45000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A55*Run_Limit)+(start-1)),":$D",((A55*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D44001:$D45000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6869,16 +7440,16 @@
         <v>45</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Data!$C45001:$C46000</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
-        <v>Data!$C46000:$Z46000</v>
+        <f>_xlfn.CONCAT("Data!$D",(1+(A56*Run_Limit)+(start-1)),":$D",((A56*Run_Limit)+Run_Limit+(start-1)))</f>
+        <v>Data!$D45001:$D46000</v>
       </c>
     </row>
   </sheetData>
@@ -6889,10 +7460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6901,37 +7472,40 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6952,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F47" ca="1" si="4">INDIRECT("Data!e" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f ca="1">G2-H2</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -6960,91 +7534,99 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H47" ca="1" si="5">INDIRECT("Data!f" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f ca="1">SUM(INDIRECT(Graphs!D11))/Run_Limit</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I47" ca="1" si="6">INDIRECT("Data!g" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="I2:I47" ca="1" si="4">INDIRECT("Data!e" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J47" ca="1" si="7">INDIRECT("Data!h" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="J2:J47" ca="1" si="5">INDIRECT("Data!f" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K47" ca="1" si="8">INDIRECT("Data!i" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="K2:K47" ca="1" si="6">INDIRECT("Data!g" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L47" ca="1" si="9">INDIRECT("Data!J" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="L2:L47" ca="1" si="7">INDIRECT("Data!h" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M47" ca="1" si="10">INDIRECT("Data!K" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="M2:M47" ca="1" si="8">INDIRECT("Data!i" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N47" ca="1" si="11">INDIRECT("Data!L" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="N2:N47" ca="1" si="9">INDIRECT("Data!J" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O47" ca="1" si="12">INDIRECT("Data!M" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="O2:O47" ca="1" si="10">INDIRECT("Data!K" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P47" ca="1" si="13">INDIRECT("Data!N" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="P2:P47" ca="1" si="11">INDIRECT("Data!L" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q47" ca="1" si="14">INDIRECT("Data!O" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="Q2:Q47" ca="1" si="12">INDIRECT("Data!M" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R47" ca="1" si="15">INDIRECT("Data!P" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="R2:R47" ca="1" si="13">INDIRECT("Data!N" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S47" ca="1" si="16">INDIRECT("Data!Q" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="S2:S47" ca="1" si="14">INDIRECT("Data!O" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T47" ca="1" si="17">INDIRECT("Data!R" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="T2:T47" ca="1" si="15">INDIRECT("Data!P" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U47" ca="1" si="18">INDIRECT("Data!S" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="U2:U47" ca="1" si="16">INDIRECT("Data!Q" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V47" ca="1" si="19">INDIRECT("Data!T" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="V2:V47" ca="1" si="17">INDIRECT("Data!R" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W47" ca="1" si="20">INDIRECT("Data!U" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="W2:W47" ca="1" si="18">INDIRECT("Data!S" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X47" ca="1" si="21">INDIRECT("Data!V" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="X2:X47" ca="1" si="19">INDIRECT("Data!T" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y47" ca="1" si="22">INDIRECT("Data!W" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="Y2:Y47" ca="1" si="20">INDIRECT("Data!U" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z47" ca="1" si="23">INDIRECT("Data!X" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="Z2:Z47" ca="1" si="21">INDIRECT("Data!V" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA47" ca="1" si="24">INDIRECT("Data!Y" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="AA2:AA47" ca="1" si="22">INDIRECT("Data!W" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB47" ca="1" si="25">INDIRECT("Data!Z" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <f t="shared" ref="AB2:AB47" ca="1" si="23">INDIRECT("Data!X" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AC47" ca="1" si="24">INDIRECT("Data!Y" &amp; ((A2*Run_Limit)+Run_Limit))</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AD47" ca="1" si="25">INDIRECT("Data!Z" &amp; ((A2*Run_Limit)+Run_Limit))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7065,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="F3:F47" ca="1" si="26">G3-H3</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -7073,91 +7655,99 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <f ca="1">SUM(INDIRECT(Graphs!D12))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7178,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G4">
@@ -7186,91 +7776,99 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <f ca="1">SUM(INDIRECT(Graphs!D13))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7291,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G5">
@@ -7299,91 +7897,99 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <f ca="1">SUM(INDIRECT(Graphs!D14))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7404,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G6">
@@ -7412,91 +8018,99 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <f ca="1">SUM(INDIRECT(Graphs!D15))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7517,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G7">
@@ -7525,91 +8139,99 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <f ca="1">SUM(INDIRECT(Graphs!D16))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7630,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G8">
@@ -7638,91 +8260,99 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <f ca="1">SUM(INDIRECT(Graphs!D17))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7743,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G9">
@@ -7751,91 +8381,99 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <f ca="1">SUM(INDIRECT(Graphs!D18))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7856,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G10">
@@ -7864,91 +8502,99 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <f ca="1">SUM(INDIRECT(Graphs!D19))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7969,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G11">
@@ -7977,91 +8623,99 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <f ca="1">SUM(INDIRECT(Graphs!D20))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8082,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G12">
@@ -8090,91 +8744,99 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <f ca="1">SUM(INDIRECT(Graphs!D21))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8195,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -8203,91 +8865,99 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <f ca="1">SUM(INDIRECT(Graphs!D22))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8308,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G14">
@@ -8316,91 +8986,99 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <f ca="1">SUM(INDIRECT(Graphs!D23))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8421,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G15">
@@ -8429,91 +9107,99 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <f ca="1">SUM(INDIRECT(Graphs!D24))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8534,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G16">
@@ -8542,91 +9228,99 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <f ca="1">SUM(INDIRECT(Graphs!D25))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8647,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G17">
@@ -8655,91 +9349,99 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <f ca="1">SUM(INDIRECT(Graphs!D26))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8760,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -8768,91 +9470,99 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <f ca="1">SUM(INDIRECT(Graphs!D27))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8873,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G19">
@@ -8881,91 +9591,99 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <f ca="1">SUM(INDIRECT(Graphs!D28))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8986,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G20">
@@ -8994,91 +9712,99 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <f ca="1">SUM(INDIRECT(Graphs!D29))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9099,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G21">
@@ -9107,91 +9833,99 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <f ca="1">SUM(INDIRECT(Graphs!D30))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9212,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G22">
@@ -9220,91 +9954,99 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <f ca="1">SUM(INDIRECT(Graphs!D31))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9325,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G23">
@@ -9333,91 +10075,99 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <f ca="1">SUM(INDIRECT(Graphs!D32))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9438,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G24">
@@ -9446,91 +10196,99 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <f ca="1">SUM(INDIRECT(Graphs!D33))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9551,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G25">
@@ -9559,91 +10317,99 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <f ca="1">SUM(INDIRECT(Graphs!D34))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9664,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G26">
@@ -9672,91 +10438,99 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <f ca="1">SUM(INDIRECT(Graphs!D35))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9777,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G27">
@@ -9785,91 +10559,99 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <f ca="1">SUM(INDIRECT(Graphs!D36))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9890,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G28">
@@ -9898,91 +10680,99 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <f ca="1">SUM(INDIRECT(Graphs!D37))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10003,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G29">
@@ -10011,91 +10801,99 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <f ca="1">SUM(INDIRECT(Graphs!D38))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10116,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G30">
@@ -10124,91 +10922,99 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <f ca="1">SUM(INDIRECT(Graphs!D39))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10229,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G31">
@@ -10237,91 +11043,99 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <f ca="1">SUM(INDIRECT(Graphs!D40))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10342,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G32">
@@ -10350,91 +11164,99 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <f ca="1">SUM(INDIRECT(Graphs!D41))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10455,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G33">
@@ -10463,91 +11285,99 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <f ca="1">SUM(INDIRECT(Graphs!D42))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10568,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G34">
@@ -10576,91 +11406,99 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <f ca="1">SUM(INDIRECT(Graphs!D43))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10681,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G35">
@@ -10689,91 +11527,99 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <f ca="1">SUM(INDIRECT(Graphs!D44))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10794,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G36">
@@ -10802,91 +11648,99 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <f ca="1">SUM(INDIRECT(Graphs!D45))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA36">
+      <c r="AC36">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10907,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G37">
@@ -10915,91 +11769,99 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <f ca="1">SUM(INDIRECT(Graphs!D46))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V37">
+      <c r="X37">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11020,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G38">
@@ -11028,91 +11890,99 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <f ca="1">SUM(INDIRECT(Graphs!D47))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11133,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G39">
@@ -11141,91 +12011,99 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <f ca="1">SUM(INDIRECT(Graphs!D48))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V39">
+      <c r="X39">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="AA39">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11246,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G40">
@@ -11254,91 +12132,99 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <f ca="1">SUM(INDIRECT(Graphs!D49))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V40">
+      <c r="X40">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="AA40">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11359,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G41">
@@ -11367,91 +12253,99 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <f ca="1">SUM(INDIRECT(Graphs!D50))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V41">
+      <c r="X41">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="Y41">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y41">
+      <c r="AA41">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z41">
+      <c r="AB41">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA41">
+      <c r="AC41">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11472,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G42">
@@ -11480,91 +12374,99 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f ca="1">SUM(INDIRECT(Graphs!D51))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V42">
+      <c r="X42">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W42">
+      <c r="Y42">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="AA42">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z42">
+      <c r="AB42">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA42">
+      <c r="AC42">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11585,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G43">
@@ -11593,91 +12495,99 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <f ca="1">SUM(INDIRECT(Graphs!D52))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V43">
+      <c r="X43">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W43">
+      <c r="Y43">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X43">
+      <c r="Z43">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y43">
+      <c r="AA43">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z43">
+      <c r="AB43">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA43">
+      <c r="AC43">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11698,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G44">
@@ -11706,91 +12616,99 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <f ca="1">SUM(INDIRECT(Graphs!D53))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V44">
+      <c r="X44">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="Y44">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="AA44">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z44">
+      <c r="AB44">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA44">
+      <c r="AC44">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11811,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G45">
@@ -11819,91 +12737,99 @@
         <v>0</v>
       </c>
       <c r="H45">
+        <f ca="1">SUM(INDIRECT(Graphs!D54))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q45">
+      <c r="S45">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V45">
+      <c r="X45">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W45">
+      <c r="Y45">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y45">
+      <c r="AA45">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z45">
+      <c r="AB45">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11924,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G46">
@@ -11932,91 +12858,99 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <f ca="1">SUM(INDIRECT(Graphs!D55))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V46">
+      <c r="X46">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W46">
+      <c r="Y46">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X46">
+      <c r="Z46">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y46">
+      <c r="AA46">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z46">
+      <c r="AB46">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA46">
+      <c r="AC46">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -12037,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="G47">
@@ -12045,86 +12979,94 @@
         <v>0</v>
       </c>
       <c r="H47">
+        <f ca="1">SUM(INDIRECT(Graphs!D56))/Run_Limit</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="V47">
+      <c r="X47">
         <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
-      <c r="W47">
+      <c r="Y47">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X47">
+      <c r="Z47">
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y47">
+      <c r="AA47">
         <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z47">
+      <c r="AB47">
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
-      <c r="AA47">
+      <c r="AC47">
         <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
